--- a/biology/Zoologie/Creseidae/Creseidae.xlsx
+++ b/biology/Zoologie/Creseidae/Creseidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Creseidae sont une famille de mollusques gastéropodes de l'ordre des Thecosomata. Ils font partie du zooplancton.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et comportement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de la famille Creseidae sont des petits escargots marins qui vivent en suspension dans l'eau près de la surface, se nourrissant de plancton. Comme l'ensemble des espèces de l'ordre des Thecosomata, ils sont parfois surnommés « papillons des mers » car ils nagent au moyen de replis de leur pied, qui fonctionnent à la manière d'ailes.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (16 juillet 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (16 juillet 2021) :
 genre Boasia Dall, 1889
 genre † Bovicornu O. Meyer, 1886
 genre † Bowdenatheca R. L. Collins, 1934
